--- a/biology/Botanique/Solfia/Solfia.xlsx
+++ b/biology/Botanique/Solfia/Solfia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solfia est un genre de la famille des Arecaceae (Palmiers) comprenant une seule espèce, Solfia samoensis, originaire des îles Samoa. Ce genre est maintenant intégré dans le genre Balaka Becc. (1885)  [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solfia est un genre de la famille des Arecaceae (Palmiers) comprenant une seule espèce, Solfia samoensis, originaire des îles Samoa. Ce genre est maintenant intégré dans le genre Balaka Becc. (1885)  .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Areceae
@@ -543,7 +557,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Solfia samoensis (actuellement synonyme de Balaka insularis Zona &amp; W.J.Baker)</t>
         </is>
